--- a/tests/data.scripts/test/calorimetry/ds.03.ampoule.bad/data.xlsx
+++ b/tests/data.scripts/test/calorimetry/ds.03.ampoule.bad/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t xml:space="preserve">H</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t xml:space="preserve">SMAPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMSE</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
@@ -1236,15 +1239,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1252,7 +1255,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1260,10 +1263,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1786,7 +1789,7 @@
         <v>43</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0242174344725</v>
+        <v>0.02097291346767</v>
       </c>
     </row>
     <row r="4">
@@ -1795,6 +1798,14 @@
       </c>
       <c r="B4" t="n">
         <v>0.0163201283064115</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.213571634585396</v>
       </c>
     </row>
   </sheetData>
@@ -1822,15 +1833,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -1841,10 +1852,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
@@ -1858,10 +1869,10 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -1869,13 +1880,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -1897,16 +1908,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -1925,13 +1936,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -1939,13 +1950,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1953,13 +1964,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1967,13 +1978,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1981,13 +1992,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -1995,13 +2006,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -2009,13 +2020,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -2023,13 +2034,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -2037,13 +2048,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -2051,13 +2062,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -2065,13 +2076,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -2079,13 +2090,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -2093,13 +2104,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -2107,13 +2118,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -2121,13 +2132,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -2135,13 +2146,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -2163,7 +2174,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
